--- a/story/主线剧情/main/level_main_07-03_beg.xlsx
+++ b/story/主线剧情/main/level_main_07-03_beg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="939">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1894,6 +1897,942 @@
   </si>
   <si>
     <t xml:space="preserve">[name="ファイヤーウォッチ"]  了解！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhodes Island Bridge 6:00 AM
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Attention, our outstanding operators, I have some important information to report to everyone in Rhodes Island. This is Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  As of last night, Rhodes Island has officially left Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  In light of recent developments, the trade agreement between us and Lungmen has been cancelled. We no longer have any reason or standing to remain inside the city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Fortunately, we’ve already purchased a lot of supplies from Lungmen, which will sustain our operations for a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Unfortunately... Some of our operators will shortly be going deep into Chernobog’s core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  An extremely tough battle awaits us there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Many may think that war is a distant concern to us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  War, they may say, is a conflict between two countries, and has nothing to do with a pharmaceutical company.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But war... I think war has never left us. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We have always been in a war. The long war of injustice against the Infected, the war that drives people to hate one another.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  To develop an effective treatment for Oripathy and give the Infected a chance to use it, our medics have poured countless hours into their research.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Likewise, it has always been our goal to provide the most advanced medical treatment to those here who suffer from Oripathy, inhibiting and slowing the progression of Oripathy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But that is far from enough. Before we can achieve these goals, we must face the ever-growing conflicts between the Infected and uninfected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The enemies of the Infected will not see them treated. And each crime they commit against the Infected aggravates the tensions between the groups.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  All while others exploit and enslave the Infected for their own profit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There are those who oppose us and even attack us, solely because we seek a cure for Oripathy... We have suffered this in the past.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Imagine... Imagine if we develop a medicine to treat this disease, but never have a chance to administer it to the Infected. What then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Our enemy is not only “Oripathy.” There is no safety for us standing back from this war anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Two weeks ago, Reunion and Rhodes Island engaged in a violent confrontation. Many of our operators sacrificed themselves in Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...a story we have seen unfold far too many times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But if every sacrifice demands vengeance from us, then we will be locked into an endless cycle of revenge. Countless lives... will be taken.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Taken by our enemies, and taken by our own hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Our struggle with Reunion cannot rest upon hatred. If we are able to negotiate with them, we will demand from them an explanation, and hold them accountable for their actions.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But Reunion is still gripped by their madness, even today. They have taken control of Chernobog’s core city, and are driving it into Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even stranger, Ursus has not surrendered its territorial control of the core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They retain a territorial claim on Chernobog, even with it under Reunion’s control, even when Ursus never...                                                      
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even when Ursus never took action as this entire incident unfolded. The Empire of Ursus ignored the atrocities committed in Chernobog, and made no effort to stop them whatsoever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...They abandoned their own citizens.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  This has led me to conclude that Ursus has conspired to bring about these events. A collision with the core city will spark an international war. A war between Ursus and Yen——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  By then, it will be too late.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  No matter who stands behind Reunion, no matter how hard they’ve pushed, no matter who the real mastermind behind all this is: there will be only one truth laid grimly at our feet.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ——”The Infected caused this war.”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  No matter the outcome of the war, the Infected will always be the scapegoat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They will face even more brutal oppression, more miserable lives, and... an eternal, fiery hatred.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If that comes to pass, all Rhodes Island has done will come to nothing. There won’t be a single country in the world that will allow us to treat the Infected, or allow them a normal life.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Indeed... this is an unavoidable part of our protracted war on Oripathy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Rhodes Island has always been fighting this war. And it’s a difficult war to win.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But despite that, we will never give up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  We will fight the fanatics with reason, and enmity with clever strategy. We will press on, because no one wants to see a bitter end to our efforts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So we will stop Reunion. We will stop the Chernobog core city from colliding with Lungmen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I hope those of you staying here on the landship will look after Rhodes Island. Whether or not we return, Rhodes Island will fight on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right. Situation normal.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Phew...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Great speech!;......;You make a charming orator.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, um, thanks, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Um? Doctor, is there something on my face? I didn’t leave crumbs on it, did I?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Yeah!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Wait? What?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Was it maybe too gloomy?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Yes, some other operators will think so too. They said, at times like these, we should be boosting morale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But I thought about it and realized we’re not that kind of team. It’s not about good or bad morale for us. We need to understand what it is we’re doing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The harder things get, the more we need to tell everyone the truth. We can’t be making our decisions blind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  What could be more dangerous than walking around this world blindfolded...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I heard Madame Ch'en left Lungmen.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...It’s true. I’m thinking Madame Ch'en will probably steal into the core city alone.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Lungmen, the Infected, her bloodline... Madame Ch'en is a complicated person, with a lot of contradictions tied up inside her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But even carrying around all that, she still didn’t give up, she didn’t run away. She carried it all with her into Chernobog.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She’s not afraid of betrayal, exile, or death.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname}, Madame Ch'en is Infected.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What?!;Huh...;I knew it all along.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Yes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Doctor, when we get to the core city, we’re also going to do what we can to rescue her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Not only because she... not only because Madame Ch'en is our friend, and not entirely because someone hired us to do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Madame Ch'en will not face Reunion alone. We will stand with her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Everything she worked so hard to protect, and the painful silence she forced on herself... We will help her, because we both want the same thing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Sounds pretty generous?;......;I thought you’d be more scared of that hard-ass.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Ah, haha. Doctor, that look on your mask... it’s funny.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’ve doubted Madame Ch'en before. I took her for the type who couldn’t change.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But when she reached out to help the Infected, I saw it. I saw the color of her heart.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I’ve never heard anything like that before.;......;That’s an interesting turn of phrase.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, err, it’s just how I’d describe it!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I don’t really know how to explain what I see... and it wouldn’t be right to transmit it to people directly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But to protect the Infected in a moving city, to keep to that ideal is... heroic.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Madame Ch'en isn’t a cold-blooded person.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She’s stern and strict, but that’s exactly why her sense of justice forces her to fight against the darkness in this world.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Even if she’s never said so herself. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So, we’ll go.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Sure. I made that promise myself!;Okay.;There’s someone else who wanted me to stop Reunion.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Dr. {@nickname}, are you talking about...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Miss FrostNova...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And... Misha.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  If there’s something we can do to prevent a repeat of Misha’s tragedy, to bring some comfort to FrostNova and her men, and...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  To help even more people, to stop the birth of new sorrow in this land, we will do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’ve sent both of you the information.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  This will be the first time the three of us have taken command together.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You’re going to work with me?;......;Am I supposed to be excited?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You could always stay here. It’s up to you. I can’t force you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Dr. Kal'tsit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m listening.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I hope you can set aside whatever preconceptions you have of Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And I hope you’ll set aside whatever prejudices you may have toward Dr. Kal'tsit, Dr. {@nickname}... from the things she’s said before. At least for the time being.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. {@nickname} has amnesia. Rhodes Island has no reliable treatment to restore the Doctor’s memory in just two short weeks.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  So everything that the Doctor is now is the product of new understanding and cognition.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, I hope you can look at this Dr. {@nickname} in a new light.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  And Dr. {@nickname}, I don’t want you doubting Dr. Kal'tsit’s intentions just because of what she’s said.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  She’s the person that...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...you can rely on the most. Whether you trust her or not, she is.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Hmph.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Please promise me, both of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What else can I do?;......;Looks like I have no choice.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Water under the bridge isn’t an option for us. Morality won’t turn us into better people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal’tsit...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I’m not refusing your proposal, Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s just, forgiveness as a form of kindness, of waiving your right to anger, will only make us weak beyond measure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I will not waive that right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But for now, I’ll shelve my prejudices. Let’s deal with the core city first.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Once and for all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Amiya, I’m standing next to you.;......;Look forward to working with you, Kal'tsit.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right... okay.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  No, it’s not like I think that’s a bad thing! I’m just... err, a little slow on the uptake.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I trust that you’ll be there for me when it counts, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But what I wanted back before was for you to guide me, and take care of everything that I couldn’t do in those difficult times...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I used to think that with the Doctor at my side, I could be brave.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, um... I’m okay, Dr. Kal’tsit. I’ve learned not to rely on other people anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But Doctor, just the Doctor... I really thought like that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Now, Doctor, we stand shoulder to shoulder. Ever since you came back to me, I’ve been waiting for the chance... to tell you... to tell you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’ve grown up. I don’t need you, or Dr. Kal'tsit, or... um... I don’t need you to protect me anymore.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I’ll get the results to prove that you were right to trust in me, Doctor. I promise.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Hey! Shoulder to shoulder is just an expression. Don’t call me short! I’m still growing...! Ugh! I’ll be as tall as you in no time, Doctor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...I’m just happy, Doctor. Yeah... just... very happy.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="PRTS"]  I am detecting a cold silence. Would you like me to raise the control room temperature a bit?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I don’t mind if the Doctor doesn’t want to share.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I don’t want to pry...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I get it. We... we all need our own space.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It’s just, Doctor, even if it’s just a little...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya, you don’t have to take that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Dr. {@nickname} has certain skills, and lacks certain skills. And skills need time to recover. Dr. {@nickname} will make the right choice at the right time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I hope that the Doctor has not forgotten everything that has happened since rejoining us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  —If I can be allowed that hope.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Dr. Kal'tsit, that’s too much...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The Doctor just doesn’t like to mince words. I’m know you go straight to the root of the problem, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  If you’re willing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I didn’t think it would be this easy. Honestly, I was even expecting you to weave in some traps and pitfalls among your words.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...But what’s the harm?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I look forward to working with you, Dr. {@nickname}.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What’s the plan?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Oh, yeah...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Um, which part of the plan are you asking about, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="First, we’ll need a way into the core city.;How do we get there?;We just walk up to Talulah and introduce ourselves, right?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rhodes Island does have its own way of doing things.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Take a look at the report. I’ll cover every part of the plan.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  In four hours, we’ll trigger a small sandstorm in the path of the Chernobog core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 AM, Wilderness 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Number one!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Compressor number one powered!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Number two!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Ammunition stockpile number two ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Number three.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Wind pump number three, camouflage... camouflage in place!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Is the camouflage going to work...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  The Chernobog core city command tower has a wide line of sight. This won’t work without camouflage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  They didn’t even try to hide the fact that the core city was basically designed as a warship. The Empire thrives through violence and conquest.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Damn... So this is just how the Empire of Ursus designs things?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Designs put ideas into peoples’ heads, and those ideas turn around and influence design. Living in an environment like this will breed a natural hostility towards outsiders, sooner or later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ...It’s not fair to the ordinary Ursus civilians to paint them with such a broad brush.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Engineering Operator"]  Oh... um... I’ll grab the backup cables.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  But, how many crimes did Ursus commit against my hometown? They’ll never be able to wash the blood off their hands.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Now, they seek to use the Infected to spark their next war, to justify even greater cruelty against the Infected. Does this not prove their brutality?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  They put the torches to our fields and choked our wells with ashes. They razed entire villages, leaving only charred corpses behind... They slaughtered the land itself. Only rubble remains. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Those are the “ordinary Ursus civilians” I know. Had they not supported the war, none of these things would’ve happened.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  I believe that was not the collective will of the people of Ursus, but rather the manifestation of evil ideas. We are not fighting the people of Ursus, but against evil itself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Firewatch, this may not be Kazimierz land we’re standing on. But still, we will not see those atrocities repeated.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  It doesn’t matter whether the enemy is Ursus or not. Reunion may call themselves Ursus, or they may not. But we’re not here to hurt people. We’re here to stop people from getting hurt.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  ...The knights never helped us guerillas. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Our leaders waited years, but in the end, help never came. We fought to the last, alone, until we were devoured by Ursus. Not many of us are still around to tell the tale.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Who can I trust? How am I supposed to I believe in the benevolence of Ursus’s “honest folk?”
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  I don’t blame the knights. Especially not you, Nearl. But I keep thinking back to the time I spent fighting Ursus.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  I don’t trust them, and I don’t trust Kazimierz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  That was a grave mistake on the part of the Kazimierz knights. A mistake that they could not right. And, they did not manage to protect Kazimierz.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  But at least, we can fight side-by-side today, Firewatch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  I didn’t have a chance to help you back then, but this time, we fight. Not for our homes, but to put an end to Ursus’s atrocities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Even if we’re only here as support, I’m still prepared. To fight for what I believe in, to die for you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  To die for someone else...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Not all knights are like you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  But I believe this is what a knight should be. There is meaning in dying for someone else.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Madam Firewatch, let this battle be my apology to you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  ...Operator Nearl.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Anything you need me to do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Guard the area, until the devices are fully operational.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hours ago...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="This is our disguise?;......;So we’ve already chosen our camouflage. ", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  After so many major combat actions, infiltration is essentially a required course for our operators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Every situation is different, but using the terrain to conceal your position is always a must.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Sometimes it’s snow, sometimes it’s grassy plains, sometimes it’s a swamp... we have different techniques every time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Lungmen is here in the deserts and barrenlands, so use the sand to cover your tracks. That’s the trick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="I’m not so sure about this.;That’s not enough.;Maybe we shouldn’t rely totally on this one tactic?", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s just a way to cover our tracks. Rhodes Island isn’t about unilateral operations. Successful infiltration is the sum of a lot of moving parts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  The information the Azazel Clinic gave us authenticated the Chernobog blueprints I have. That means we have a solid picture of what the core city’s lower levels look like.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  When the time comes, we’ll enter through the drainage system in the foundation. But we’ll need bait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  We can’t hook our prey without bait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Same for the hunter.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Heh... Yes. You’re right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But given enough time, even the worst hunter can tell the difference between prey and bait. We’ll have to stay out of sight long enough to prevent that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  You don’t need us to land for this op, do you, Instructor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  There isn’t a good spot on the core city, and Reunion isn’t exactly poorly equipped. They’ve got casters too. Landing would be trucky.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  No need. Just make it look like we’re going to land, but keep circling the city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  We didn’t bring a tactical team. Not much we can do with just the two of us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Yeah, didn’t think of that.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  ...How would you not think of that...?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  J-Just kidding, Instructor. Put the whip down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Hah... We got the wuss who flies the “Bad Guy” and now this joker.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  You can keep us up for a half an hour, can’t you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Not a problem!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Just keep their attention! The Reunion element in the ruins knows we have aircraft, but we can't be sure about what their people in the core city might know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Rest assured, you’re riding the “Good Boy,” and he’s a lot noisier than the “Bad Guy!” It’ll be all eyes on us for a solid half hour. Just watch me, Instructor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Careful now. Don’t get us shot down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Just sit back and relax, Instructor. I chauffeured Blaze and Ascalon around a hundred times and we never got shot down on any of those low flights.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  ...Getting shot down is a one time thing...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:00 a.m. Core City Outskirts 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  Huh?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  What’s that...? Up in the sky?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  They’re flying?! The enemy brought a new weapon! What country is it from?! Just shoot it down already!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Member"]  We don’t know what it’s carrying. We can’t let it land!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Reunion Caster"]  Don’t panic! If it drops low enough, we’ll light it up! Just don’t let it out of your sight!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  What kind of safety features are on this thing?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Are you afraid of heights, Instructor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  A little.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  Don’t worry!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Pilot"]  If something goes wrong, we won’t have time to react. The crash will pulverize us. Won’t even be able to identify our bodies. The great equalizer!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  How could I not worry?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Dobermann"]  Amiya, we’ve managed to distract the enemy. They’re convinced we’re preparing to land. Begin the operation!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Attention, combat operators! A smattering of enemies is approaching our position. Likely a recon team from the core city!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Nearl"]  Our equipment is active. We won’t let them ruin our plans. Madam Firewatch, cover me!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Firewatch"]  Roger!
 </t>
   </si>
   <si>
@@ -3184,13 +4123,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C237"/>
+  <dimension ref="A1:D237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3200,2601 +4139,3312 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C4" t="s">
+        <v>474</v>
+      </c>
+      <c r="D4" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D6" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C7" t="s">
+        <v>477</v>
+      </c>
+      <c r="D7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D8" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C9" t="s">
+        <v>479</v>
+      </c>
+      <c r="D9" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
+        <v>481</v>
+      </c>
+      <c r="D11" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C14" t="s">
+        <v>484</v>
+      </c>
+      <c r="D14" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D15" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D16" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" t="s">
+        <v>487</v>
+      </c>
+      <c r="D17" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" t="s">
+        <v>488</v>
+      </c>
+      <c r="D18" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>489</v>
+      </c>
+      <c r="D19" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>257</v>
+      </c>
+      <c r="C20" t="s">
+        <v>490</v>
+      </c>
+      <c r="D20" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" t="s">
+        <v>491</v>
+      </c>
+      <c r="D21" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" t="s">
+        <v>492</v>
+      </c>
+      <c r="D22" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" t="s">
+        <v>494</v>
+      </c>
+      <c r="D24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C25" t="s">
+        <v>495</v>
+      </c>
+      <c r="D25" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>496</v>
+      </c>
+      <c r="D26" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>264</v>
+      </c>
+      <c r="C27" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D28" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>266</v>
+      </c>
+      <c r="C29" t="s">
+        <v>499</v>
+      </c>
+      <c r="D29" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C30" t="s">
+        <v>500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>268</v>
+      </c>
+      <c r="C31" t="s">
+        <v>501</v>
+      </c>
+      <c r="D31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C32" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" t="s">
+        <v>503</v>
+      </c>
+      <c r="D33" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" t="s">
+        <v>504</v>
+      </c>
+      <c r="D34" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D35" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>273</v>
+      </c>
+      <c r="C36" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>274</v>
+      </c>
+      <c r="C37" t="s">
+        <v>507</v>
+      </c>
+      <c r="D37" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>275</v>
+      </c>
+      <c r="C38" t="s">
+        <v>508</v>
+      </c>
+      <c r="D38" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
+        <v>509</v>
+      </c>
+      <c r="D39" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>277</v>
+      </c>
+      <c r="C40" t="s">
+        <v>510</v>
+      </c>
+      <c r="D40" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C41" t="s">
+        <v>511</v>
+      </c>
+      <c r="D41" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>279</v>
+      </c>
+      <c r="C42" t="s">
+        <v>512</v>
+      </c>
+      <c r="D42" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" t="s">
+        <v>513</v>
+      </c>
+      <c r="D43" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C44" t="s">
+        <v>514</v>
+      </c>
+      <c r="D44" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>282</v>
+      </c>
+      <c r="C45" t="s">
+        <v>515</v>
+      </c>
+      <c r="D45" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" t="s">
+        <v>516</v>
+      </c>
+      <c r="D46" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" t="s">
+        <v>517</v>
+      </c>
+      <c r="D47" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>285</v>
+      </c>
+      <c r="C48" t="s">
+        <v>518</v>
+      </c>
+      <c r="D48" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>286</v>
+      </c>
+      <c r="C49" t="s">
+        <v>519</v>
+      </c>
+      <c r="D49" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>287</v>
+      </c>
+      <c r="C50" t="s">
+        <v>520</v>
+      </c>
+      <c r="D50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>288</v>
+      </c>
+      <c r="C51" t="s">
+        <v>521</v>
+      </c>
+      <c r="D51" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" t="s">
+        <v>522</v>
+      </c>
+      <c r="D52" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" t="s">
+        <v>523</v>
+      </c>
+      <c r="D53" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>291</v>
+      </c>
+      <c r="C54" t="s">
+        <v>524</v>
+      </c>
+      <c r="D54" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" t="s">
+        <v>525</v>
+      </c>
+      <c r="D55" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" t="s">
+        <v>526</v>
+      </c>
+      <c r="D56" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>294</v>
+      </c>
+      <c r="C57" t="s">
+        <v>527</v>
+      </c>
+      <c r="D57" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>295</v>
+      </c>
+      <c r="C58" t="s">
+        <v>528</v>
+      </c>
+      <c r="D58" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>296</v>
+      </c>
+      <c r="C59" t="s">
+        <v>529</v>
+      </c>
+      <c r="D59" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" t="s">
+        <v>530</v>
+      </c>
+      <c r="D60" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>298</v>
+      </c>
+      <c r="C61" t="s">
+        <v>531</v>
+      </c>
+      <c r="D61" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>299</v>
+      </c>
+      <c r="C62" t="s">
+        <v>532</v>
+      </c>
+      <c r="D62" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>300</v>
+      </c>
+      <c r="C63" t="s">
+        <v>533</v>
+      </c>
+      <c r="D63" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>301</v>
+      </c>
+      <c r="C64" t="s">
+        <v>534</v>
+      </c>
+      <c r="D64" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>302</v>
+      </c>
+      <c r="C65" t="s">
+        <v>535</v>
+      </c>
+      <c r="D65" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>303</v>
+      </c>
+      <c r="C66" t="s">
+        <v>536</v>
+      </c>
+      <c r="D66" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" t="s">
+        <v>537</v>
+      </c>
+      <c r="D67" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" t="s">
+        <v>538</v>
+      </c>
+      <c r="D68" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>307</v>
+      </c>
+      <c r="C70" t="s">
+        <v>540</v>
+      </c>
+      <c r="D70" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>308</v>
+      </c>
+      <c r="C71" t="s">
+        <v>541</v>
+      </c>
+      <c r="D71" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>309</v>
+      </c>
+      <c r="C72" t="s">
+        <v>542</v>
+      </c>
+      <c r="D72" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>310</v>
+      </c>
+      <c r="C73" t="s">
+        <v>543</v>
+      </c>
+      <c r="D73" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>311</v>
+      </c>
+      <c r="C74" t="s">
+        <v>544</v>
+      </c>
+      <c r="D74" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>312</v>
+      </c>
+      <c r="C75" t="s">
+        <v>545</v>
+      </c>
+      <c r="D75" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>313</v>
+      </c>
+      <c r="C76" t="s">
+        <v>546</v>
+      </c>
+      <c r="D76" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" t="s">
+        <v>547</v>
+      </c>
+      <c r="D77" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" t="s">
+        <v>548</v>
+      </c>
+      <c r="D78" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" t="s">
+        <v>549</v>
+      </c>
+      <c r="D79" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>317</v>
+      </c>
+      <c r="C80" t="s">
+        <v>550</v>
+      </c>
+      <c r="D80" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>318</v>
+      </c>
+      <c r="C81" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>319</v>
+      </c>
+      <c r="C82" t="s">
+        <v>552</v>
+      </c>
+      <c r="D82" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>320</v>
+      </c>
+      <c r="C83" t="s">
+        <v>553</v>
+      </c>
+      <c r="D83" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>321</v>
+      </c>
+      <c r="C84" t="s">
+        <v>554</v>
+      </c>
+      <c r="D84" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>322</v>
+      </c>
+      <c r="C85" t="s">
+        <v>555</v>
+      </c>
+      <c r="D85" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>323</v>
+      </c>
+      <c r="C86" t="s">
+        <v>556</v>
+      </c>
+      <c r="D86" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>324</v>
+      </c>
+      <c r="C87" t="s">
+        <v>557</v>
+      </c>
+      <c r="D87" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C88" t="s">
+        <v>558</v>
+      </c>
+      <c r="D88" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>326</v>
+      </c>
+      <c r="C89" t="s">
+        <v>559</v>
+      </c>
+      <c r="D89" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>327</v>
+      </c>
+      <c r="C90" t="s">
+        <v>560</v>
+      </c>
+      <c r="D90" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>328</v>
+      </c>
+      <c r="C91" t="s">
+        <v>561</v>
+      </c>
+      <c r="D91" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>329</v>
+      </c>
+      <c r="C92" t="s">
+        <v>562</v>
+      </c>
+      <c r="D92" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>330</v>
+      </c>
+      <c r="C93" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>331</v>
+      </c>
+      <c r="C94" t="s">
+        <v>564</v>
+      </c>
+      <c r="D94" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C95" t="s">
+        <v>565</v>
+      </c>
+      <c r="D95" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>333</v>
+      </c>
+      <c r="C96" t="s">
+        <v>566</v>
+      </c>
+      <c r="D96" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" t="s">
+        <v>567</v>
+      </c>
+      <c r="D97" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>335</v>
+      </c>
+      <c r="C98" t="s">
+        <v>568</v>
+      </c>
+      <c r="D98" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>336</v>
+      </c>
+      <c r="C99" t="s">
+        <v>569</v>
+      </c>
+      <c r="D99" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>337</v>
+      </c>
+      <c r="C100" t="s">
+        <v>570</v>
+      </c>
+      <c r="D100" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>338</v>
+      </c>
+      <c r="C101" t="s">
+        <v>571</v>
+      </c>
+      <c r="D101" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>339</v>
+      </c>
+      <c r="C102" t="s">
+        <v>572</v>
+      </c>
+      <c r="D102" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>340</v>
+      </c>
+      <c r="C103" t="s">
+        <v>573</v>
+      </c>
+      <c r="D103" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>341</v>
+      </c>
+      <c r="C104" t="s">
+        <v>574</v>
+      </c>
+      <c r="D104" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>342</v>
+      </c>
+      <c r="C105" t="s">
+        <v>575</v>
+      </c>
+      <c r="D105" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>343</v>
+      </c>
+      <c r="C106" t="s">
+        <v>576</v>
+      </c>
+      <c r="D106" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>344</v>
+      </c>
+      <c r="C107" t="s">
+        <v>577</v>
+      </c>
+      <c r="D107" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>345</v>
+      </c>
+      <c r="C108" t="s">
+        <v>578</v>
+      </c>
+      <c r="D108" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" t="s">
+        <v>579</v>
+      </c>
+      <c r="D109" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>347</v>
+      </c>
+      <c r="C110" t="s">
+        <v>580</v>
+      </c>
+      <c r="D110" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>581</v>
+      </c>
+      <c r="D111" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>349</v>
+      </c>
+      <c r="C112" t="s">
+        <v>582</v>
+      </c>
+      <c r="D112" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>350</v>
+      </c>
+      <c r="C113" t="s">
+        <v>583</v>
+      </c>
+      <c r="D113" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>351</v>
+      </c>
+      <c r="C114" t="s">
+        <v>584</v>
+      </c>
+      <c r="D114" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="s">
+        <v>352</v>
+      </c>
+      <c r="C115" t="s">
+        <v>585</v>
+      </c>
+      <c r="D115" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>353</v>
+      </c>
+      <c r="C116" t="s">
+        <v>586</v>
+      </c>
+      <c r="D116" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>354</v>
+      </c>
+      <c r="C117" t="s">
+        <v>587</v>
+      </c>
+      <c r="D117" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="s">
+        <v>355</v>
+      </c>
+      <c r="C118" t="s">
+        <v>588</v>
+      </c>
+      <c r="D118" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="s">
+        <v>356</v>
+      </c>
+      <c r="C119" t="s">
+        <v>589</v>
+      </c>
+      <c r="D119" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="s">
+        <v>357</v>
+      </c>
+      <c r="C120" t="s">
+        <v>590</v>
+      </c>
+      <c r="D120" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="s">
+        <v>358</v>
+      </c>
+      <c r="C121" t="s">
+        <v>591</v>
+      </c>
+      <c r="D121" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="s">
+        <v>359</v>
+      </c>
+      <c r="C122" t="s">
+        <v>592</v>
+      </c>
+      <c r="D122" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="s">
+        <v>360</v>
+      </c>
+      <c r="C123" t="s">
+        <v>593</v>
+      </c>
+      <c r="D123" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" t="s">
+        <v>594</v>
+      </c>
+      <c r="D124" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="s">
+        <v>362</v>
+      </c>
+      <c r="C125" t="s">
+        <v>595</v>
+      </c>
+      <c r="D125" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="s">
+        <v>363</v>
+      </c>
+      <c r="C126" t="s">
+        <v>596</v>
+      </c>
+      <c r="D126" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="s">
+        <v>364</v>
+      </c>
+      <c r="C127" t="s">
+        <v>597</v>
+      </c>
+      <c r="D127" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>361</v>
+      </c>
+      <c r="C128" t="s">
+        <v>594</v>
+      </c>
+      <c r="D128" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>365</v>
+      </c>
+      <c r="C129" t="s">
+        <v>598</v>
+      </c>
+      <c r="D129" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>366</v>
+      </c>
+      <c r="C130" t="s">
+        <v>599</v>
+      </c>
+      <c r="D130" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" t="s">
+        <v>600</v>
+      </c>
+      <c r="D131" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" t="s">
+        <v>601</v>
+      </c>
+      <c r="D132" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" t="s">
+        <v>602</v>
+      </c>
+      <c r="D133" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>370</v>
+      </c>
+      <c r="C134" t="s">
+        <v>603</v>
+      </c>
+      <c r="D134" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" t="s">
+        <v>604</v>
+      </c>
+      <c r="D135" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>372</v>
+      </c>
+      <c r="C136" t="s">
+        <v>605</v>
+      </c>
+      <c r="D136" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>373</v>
+      </c>
+      <c r="C137" t="s">
+        <v>606</v>
+      </c>
+      <c r="D137" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>374</v>
+      </c>
+      <c r="C138" t="s">
+        <v>607</v>
+      </c>
+      <c r="D138" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>375</v>
+      </c>
+      <c r="C139" t="s">
+        <v>608</v>
+      </c>
+      <c r="D139" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>376</v>
+      </c>
+      <c r="C140" t="s">
+        <v>609</v>
+      </c>
+      <c r="D140" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>361</v>
+      </c>
+      <c r="C141" t="s">
+        <v>610</v>
+      </c>
+      <c r="D141" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>377</v>
+      </c>
+      <c r="C142" t="s">
+        <v>611</v>
+      </c>
+      <c r="D142" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>378</v>
+      </c>
+      <c r="C143" t="s">
+        <v>612</v>
+      </c>
+      <c r="D143" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>379</v>
+      </c>
+      <c r="C144" t="s">
+        <v>613</v>
+      </c>
+      <c r="D144" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" t="s">
+        <v>614</v>
+      </c>
+      <c r="D145" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>381</v>
+      </c>
+      <c r="C146" t="s">
+        <v>615</v>
+      </c>
+      <c r="D146" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>382</v>
+      </c>
+      <c r="C147" t="s">
+        <v>616</v>
+      </c>
+      <c r="D147" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" t="s">
+        <v>617</v>
+      </c>
+      <c r="D148" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" t="s">
+        <v>618</v>
+      </c>
+      <c r="D149" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>385</v>
+      </c>
+      <c r="C150" t="s">
+        <v>619</v>
+      </c>
+      <c r="D150" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>386</v>
+      </c>
+      <c r="C151" t="s">
+        <v>620</v>
+      </c>
+      <c r="D151" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>387</v>
+      </c>
+      <c r="C152" t="s">
+        <v>621</v>
+      </c>
+      <c r="D152" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>388</v>
+      </c>
+      <c r="C153" t="s">
+        <v>622</v>
+      </c>
+      <c r="D153" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>389</v>
+      </c>
+      <c r="C154" t="s">
+        <v>623</v>
+      </c>
+      <c r="D154" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>390</v>
+      </c>
+      <c r="C155" t="s">
+        <v>624</v>
+      </c>
+      <c r="D155" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="s">
+        <v>391</v>
+      </c>
+      <c r="C156" t="s">
+        <v>625</v>
+      </c>
+      <c r="D156" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="s">
+        <v>392</v>
+      </c>
+      <c r="C157" t="s">
+        <v>626</v>
+      </c>
+      <c r="D157" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="s">
+        <v>393</v>
+      </c>
+      <c r="C158" t="s">
+        <v>627</v>
+      </c>
+      <c r="D158" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="s">
+        <v>394</v>
+      </c>
+      <c r="C159" t="s">
+        <v>628</v>
+      </c>
+      <c r="D159" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="s">
+        <v>395</v>
+      </c>
+      <c r="C160" t="s">
+        <v>629</v>
+      </c>
+      <c r="D160" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="s">
+        <v>396</v>
+      </c>
+      <c r="C161" t="s">
+        <v>630</v>
+      </c>
+      <c r="D161" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="s">
+        <v>397</v>
+      </c>
+      <c r="C162" t="s">
+        <v>631</v>
+      </c>
+      <c r="D162" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="s">
+        <v>398</v>
+      </c>
+      <c r="C163" t="s">
+        <v>632</v>
+      </c>
+      <c r="D163" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="s">
+        <v>399</v>
+      </c>
+      <c r="C164" t="s">
+        <v>633</v>
+      </c>
+      <c r="D164" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="s">
+        <v>400</v>
+      </c>
+      <c r="C165" t="s">
+        <v>634</v>
+      </c>
+      <c r="D165" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="s">
+        <v>401</v>
+      </c>
+      <c r="C166" t="s">
+        <v>635</v>
+      </c>
+      <c r="D166" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="s">
+        <v>402</v>
+      </c>
+      <c r="C167" t="s">
+        <v>636</v>
+      </c>
+      <c r="D167" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="s">
+        <v>403</v>
+      </c>
+      <c r="C168" t="s">
+        <v>637</v>
+      </c>
+      <c r="D168" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="s">
+        <v>404</v>
+      </c>
+      <c r="C169" t="s">
+        <v>638</v>
+      </c>
+      <c r="D169" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="s">
+        <v>405</v>
+      </c>
+      <c r="C170" t="s">
+        <v>639</v>
+      </c>
+      <c r="D170" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="s">
+        <v>406</v>
+      </c>
+      <c r="C171" t="s">
+        <v>640</v>
+      </c>
+      <c r="D171" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="s">
+        <v>407</v>
+      </c>
+      <c r="C172" t="s">
+        <v>641</v>
+      </c>
+      <c r="D172" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="s">
+        <v>408</v>
+      </c>
+      <c r="C173" t="s">
+        <v>642</v>
+      </c>
+      <c r="D173" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="s">
+        <v>409</v>
+      </c>
+      <c r="C174" t="s">
+        <v>643</v>
+      </c>
+      <c r="D174" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="s">
+        <v>410</v>
+      </c>
+      <c r="C175" t="s">
+        <v>644</v>
+      </c>
+      <c r="D175" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="s">
+        <v>411</v>
+      </c>
+      <c r="C176" t="s">
+        <v>645</v>
+      </c>
+      <c r="D176" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" t="s">
+        <v>646</v>
+      </c>
+      <c r="D177" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" t="s">
+        <v>647</v>
+      </c>
+      <c r="D178" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="s">
+        <v>414</v>
+      </c>
+      <c r="C179" t="s">
+        <v>648</v>
+      </c>
+      <c r="D179" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="s">
+        <v>415</v>
+      </c>
+      <c r="C180" t="s">
+        <v>649</v>
+      </c>
+      <c r="D180" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="s">
+        <v>416</v>
+      </c>
+      <c r="C181" t="s">
+        <v>650</v>
+      </c>
+      <c r="D181" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="s">
+        <v>417</v>
+      </c>
+      <c r="C182" t="s">
+        <v>651</v>
+      </c>
+      <c r="D182" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="s">
+        <v>418</v>
+      </c>
+      <c r="C183" t="s">
+        <v>652</v>
+      </c>
+      <c r="D183" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="s">
+        <v>419</v>
+      </c>
+      <c r="C184" t="s">
+        <v>653</v>
+      </c>
+      <c r="D184" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="s">
+        <v>420</v>
+      </c>
+      <c r="C185" t="s">
+        <v>654</v>
+      </c>
+      <c r="D185" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="s">
+        <v>421</v>
+      </c>
+      <c r="C186" t="s">
+        <v>655</v>
+      </c>
+      <c r="D186" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="s">
+        <v>422</v>
+      </c>
+      <c r="C187" t="s">
+        <v>656</v>
+      </c>
+      <c r="D187" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="s">
+        <v>423</v>
+      </c>
+      <c r="C188" t="s">
+        <v>657</v>
+      </c>
+      <c r="D188" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="s">
+        <v>424</v>
+      </c>
+      <c r="C189" t="s">
+        <v>658</v>
+      </c>
+      <c r="D189" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="s">
+        <v>425</v>
+      </c>
+      <c r="C190" t="s">
+        <v>659</v>
+      </c>
+      <c r="D190" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="s">
+        <v>426</v>
+      </c>
+      <c r="C191" t="s">
+        <v>660</v>
+      </c>
+      <c r="D191" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="s">
+        <v>427</v>
+      </c>
+      <c r="C192" t="s">
+        <v>661</v>
+      </c>
+      <c r="D192" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="s">
+        <v>428</v>
+      </c>
+      <c r="C193" t="s">
+        <v>662</v>
+      </c>
+      <c r="D193" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="s">
+        <v>429</v>
+      </c>
+      <c r="C194" t="s">
+        <v>663</v>
+      </c>
+      <c r="D194" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="s">
+        <v>430</v>
+      </c>
+      <c r="C195" t="s">
+        <v>664</v>
+      </c>
+      <c r="D195" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="s">
+        <v>431</v>
+      </c>
+      <c r="C196" t="s">
+        <v>665</v>
+      </c>
+      <c r="D196" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="s">
+        <v>432</v>
+      </c>
+      <c r="C197" t="s">
+        <v>666</v>
+      </c>
+      <c r="D197" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="s">
+        <v>433</v>
+      </c>
+      <c r="C198" t="s">
+        <v>667</v>
+      </c>
+      <c r="D198" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="s">
+        <v>434</v>
+      </c>
+      <c r="C199" t="s">
+        <v>668</v>
+      </c>
+      <c r="D199" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="s">
+        <v>435</v>
+      </c>
+      <c r="C200" t="s">
+        <v>669</v>
+      </c>
+      <c r="D200" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="s">
+        <v>436</v>
+      </c>
+      <c r="C201" t="s">
+        <v>670</v>
+      </c>
+      <c r="D201" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="s">
+        <v>437</v>
+      </c>
+      <c r="C202" t="s">
+        <v>671</v>
+      </c>
+      <c r="D202" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="s">
+        <v>438</v>
+      </c>
+      <c r="C203" t="s">
+        <v>672</v>
+      </c>
+      <c r="D203" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="s">
+        <v>439</v>
+      </c>
+      <c r="C204" t="s">
+        <v>673</v>
+      </c>
+      <c r="D204" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="s">
+        <v>206</v>
+      </c>
+      <c r="C205" t="s">
+        <v>206</v>
+      </c>
+      <c r="D205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="s">
+        <v>440</v>
+      </c>
+      <c r="C206" t="s">
+        <v>674</v>
+      </c>
+      <c r="D206" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>441</v>
+      </c>
+      <c r="C207" t="s">
+        <v>675</v>
+      </c>
+      <c r="D207" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>442</v>
+      </c>
+      <c r="C208" t="s">
+        <v>676</v>
+      </c>
+      <c r="D208" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>443</v>
+      </c>
+      <c r="C209" t="s">
+        <v>677</v>
+      </c>
+      <c r="D209" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>444</v>
+      </c>
+      <c r="C210" t="s">
+        <v>678</v>
+      </c>
+      <c r="D210" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="s">
+        <v>445</v>
+      </c>
+      <c r="C211" t="s">
+        <v>679</v>
+      </c>
+      <c r="D211" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="s">
+        <v>446</v>
+      </c>
+      <c r="C212" t="s">
+        <v>680</v>
+      </c>
+      <c r="D212" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="s">
+        <v>447</v>
+      </c>
+      <c r="C213" t="s">
+        <v>681</v>
+      </c>
+      <c r="D213" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="s">
+        <v>448</v>
+      </c>
+      <c r="C214" t="s">
+        <v>682</v>
+      </c>
+      <c r="D214" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="s">
+        <v>449</v>
+      </c>
+      <c r="C215" t="s">
+        <v>683</v>
+      </c>
+      <c r="D215" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="s">
+        <v>450</v>
+      </c>
+      <c r="C216" t="s">
+        <v>684</v>
+      </c>
+      <c r="D216" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="s">
+        <v>451</v>
+      </c>
+      <c r="C217" t="s">
+        <v>685</v>
+      </c>
+      <c r="D217" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="s">
+        <v>452</v>
+      </c>
+      <c r="C218" t="s">
+        <v>686</v>
+      </c>
+      <c r="D218" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="s">
+        <v>453</v>
+      </c>
+      <c r="C219" t="s">
+        <v>687</v>
+      </c>
+      <c r="D219" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="s">
+        <v>454</v>
+      </c>
+      <c r="C220" t="s">
+        <v>688</v>
+      </c>
+      <c r="D220" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="s">
+        <v>455</v>
+      </c>
+      <c r="C221" t="s">
+        <v>689</v>
+      </c>
+      <c r="D221" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="s">
+        <v>456</v>
+      </c>
+      <c r="C222" t="s">
+        <v>690</v>
+      </c>
+      <c r="D222" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="s">
+        <v>457</v>
+      </c>
+      <c r="C223" t="s">
+        <v>691</v>
+      </c>
+      <c r="D223" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="s">
+        <v>458</v>
+      </c>
+      <c r="C224" t="s">
+        <v>692</v>
+      </c>
+      <c r="D224" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="s">
+        <v>459</v>
+      </c>
+      <c r="C225" t="s">
+        <v>693</v>
+      </c>
+      <c r="D225" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="s">
+        <v>460</v>
+      </c>
+      <c r="C226" t="s">
+        <v>694</v>
+      </c>
+      <c r="D226" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="s">
+        <v>461</v>
+      </c>
+      <c r="C227" t="s">
+        <v>695</v>
+      </c>
+      <c r="D227" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="s">
+        <v>462</v>
+      </c>
+      <c r="C228" t="s">
+        <v>696</v>
+      </c>
+      <c r="D228" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="s">
+        <v>463</v>
+      </c>
+      <c r="C229" t="s">
+        <v>697</v>
+      </c>
+      <c r="D229" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="s">
+        <v>464</v>
+      </c>
+      <c r="C230" t="s">
+        <v>698</v>
+      </c>
+      <c r="D230" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="s">
+        <v>465</v>
+      </c>
+      <c r="C231" t="s">
+        <v>699</v>
+      </c>
+      <c r="D231" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="s">
+        <v>466</v>
+      </c>
+      <c r="C232" t="s">
+        <v>700</v>
+      </c>
+      <c r="D232" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="s">
+        <v>467</v>
+      </c>
+      <c r="C233" t="s">
+        <v>701</v>
+      </c>
+      <c r="D233" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="s">
+        <v>468</v>
+      </c>
+      <c r="C234" t="s">
+        <v>702</v>
+      </c>
+      <c r="D234" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+      <c r="C235" t="s">
+        <v>703</v>
+      </c>
+      <c r="D235" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="s">
+        <v>470</v>
+      </c>
+      <c r="C236" t="s">
+        <v>704</v>
+      </c>
+      <c r="D236" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
         <v>238</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B237" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C4" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C5" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>242</v>
-      </c>
-      <c r="C6" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C9" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C10" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>251</v>
-      </c>
-      <c r="C15" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>252</v>
-      </c>
-      <c r="C16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>255</v>
-      </c>
-      <c r="C19" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>264</v>
-      </c>
-      <c r="C28" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>265</v>
-      </c>
-      <c r="C29" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>266</v>
-      </c>
-      <c r="C30" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>267</v>
-      </c>
-      <c r="C31" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>268</v>
-      </c>
-      <c r="C32" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C33" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>270</v>
-      </c>
-      <c r="C34" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>271</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>272</v>
-      </c>
-      <c r="C36" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>273</v>
-      </c>
-      <c r="C37" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>274</v>
-      </c>
-      <c r="C38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>275</v>
-      </c>
-      <c r="C39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>276</v>
-      </c>
-      <c r="C40" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>277</v>
-      </c>
-      <c r="C41" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>279</v>
-      </c>
-      <c r="C43" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>280</v>
-      </c>
-      <c r="C44" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>283</v>
-      </c>
-      <c r="C47" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>284</v>
-      </c>
-      <c r="C48" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>285</v>
-      </c>
-      <c r="C49" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>286</v>
-      </c>
-      <c r="C50" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>287</v>
-      </c>
-      <c r="C51" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>288</v>
-      </c>
-      <c r="C52" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>289</v>
-      </c>
-      <c r="C53" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>290</v>
-      </c>
-      <c r="C54" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>291</v>
-      </c>
-      <c r="C55" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>292</v>
-      </c>
-      <c r="C56" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>293</v>
-      </c>
-      <c r="C57" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>294</v>
-      </c>
-      <c r="C58" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>295</v>
-      </c>
-      <c r="C59" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>296</v>
-      </c>
-      <c r="C60" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>297</v>
-      </c>
-      <c r="C61" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>298</v>
-      </c>
-      <c r="C62" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C63" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>300</v>
-      </c>
-      <c r="C64" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>301</v>
-      </c>
-      <c r="C65" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>302</v>
-      </c>
-      <c r="C66" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>303</v>
-      </c>
-      <c r="C67" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>304</v>
-      </c>
-      <c r="C68" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>305</v>
-      </c>
-      <c r="C69" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>306</v>
-      </c>
-      <c r="C70" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>307</v>
-      </c>
-      <c r="C71" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>308</v>
-      </c>
-      <c r="C72" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>309</v>
-      </c>
-      <c r="C73" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>310</v>
-      </c>
-      <c r="C74" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>311</v>
-      </c>
-      <c r="C75" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>312</v>
-      </c>
-      <c r="C76" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>314</v>
-      </c>
-      <c r="C78" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>315</v>
-      </c>
-      <c r="C79" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>316</v>
-      </c>
-      <c r="C80" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>317</v>
-      </c>
-      <c r="C81" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>318</v>
-      </c>
-      <c r="C82" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>319</v>
-      </c>
-      <c r="C83" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>320</v>
-      </c>
-      <c r="C84" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>321</v>
-      </c>
-      <c r="C85" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>322</v>
-      </c>
-      <c r="C86" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>323</v>
-      </c>
-      <c r="C87" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>327</v>
-      </c>
-      <c r="C91" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>328</v>
-      </c>
-      <c r="C92" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>329</v>
-      </c>
-      <c r="C93" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>330</v>
-      </c>
-      <c r="C94" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>331</v>
-      </c>
-      <c r="C95" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>332</v>
-      </c>
-      <c r="C96" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>333</v>
-      </c>
-      <c r="C97" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>334</v>
-      </c>
-      <c r="C98" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>335</v>
-      </c>
-      <c r="C99" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>336</v>
-      </c>
-      <c r="C100" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>337</v>
-      </c>
-      <c r="C101" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="s">
-        <v>339</v>
-      </c>
-      <c r="C103" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>340</v>
-      </c>
-      <c r="C104" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>341</v>
-      </c>
-      <c r="C105" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>342</v>
-      </c>
-      <c r="C106" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>344</v>
-      </c>
-      <c r="C108" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>345</v>
-      </c>
-      <c r="C109" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>346</v>
-      </c>
-      <c r="C110" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>347</v>
-      </c>
-      <c r="C111" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>348</v>
-      </c>
-      <c r="C112" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>349</v>
-      </c>
-      <c r="C113" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>350</v>
-      </c>
-      <c r="C114" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" t="s">
-        <v>351</v>
-      </c>
-      <c r="C115" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" t="s">
-        <v>352</v>
-      </c>
-      <c r="C116" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>353</v>
-      </c>
-      <c r="C117" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" t="s">
-        <v>354</v>
-      </c>
-      <c r="C118" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" t="s">
-        <v>355</v>
-      </c>
-      <c r="C119" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" t="s">
-        <v>356</v>
-      </c>
-      <c r="C120" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" t="s">
-        <v>357</v>
-      </c>
-      <c r="C121" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" t="s">
-        <v>358</v>
-      </c>
-      <c r="C122" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" t="s">
-        <v>359</v>
-      </c>
-      <c r="C123" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" t="s">
-        <v>360</v>
-      </c>
-      <c r="C124" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" t="s">
-        <v>361</v>
-      </c>
-      <c r="C125" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" t="s">
-        <v>362</v>
-      </c>
-      <c r="C126" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" t="s">
-        <v>363</v>
-      </c>
-      <c r="C127" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>125</v>
-      </c>
-      <c r="B128" t="s">
-        <v>360</v>
-      </c>
-      <c r="C128" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>364</v>
-      </c>
-      <c r="C129" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>365</v>
-      </c>
-      <c r="C130" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>366</v>
-      </c>
-      <c r="C131" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>367</v>
-      </c>
-      <c r="C132" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>368</v>
-      </c>
-      <c r="C133" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>369</v>
-      </c>
-      <c r="C134" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>370</v>
-      </c>
-      <c r="C135" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>371</v>
-      </c>
-      <c r="C136" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>372</v>
-      </c>
-      <c r="C137" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>373</v>
-      </c>
-      <c r="C138" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>374</v>
-      </c>
-      <c r="C139" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>375</v>
-      </c>
-      <c r="C140" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>360</v>
-      </c>
-      <c r="C141" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>376</v>
-      </c>
-      <c r="C142" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>377</v>
-      </c>
-      <c r="C143" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>378</v>
-      </c>
-      <c r="C144" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>379</v>
-      </c>
-      <c r="C145" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>380</v>
-      </c>
-      <c r="C146" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>381</v>
-      </c>
-      <c r="C147" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>382</v>
-      </c>
-      <c r="C148" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>383</v>
-      </c>
-      <c r="C149" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>384</v>
-      </c>
-      <c r="C150" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>385</v>
-      </c>
-      <c r="C151" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>386</v>
-      </c>
-      <c r="C152" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
-        <v>387</v>
-      </c>
-      <c r="C153" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
-        <v>388</v>
-      </c>
-      <c r="C154" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>389</v>
-      </c>
-      <c r="C155" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>390</v>
-      </c>
-      <c r="C156" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157" t="s">
-        <v>391</v>
-      </c>
-      <c r="C157" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158" t="s">
-        <v>392</v>
-      </c>
-      <c r="C158" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159" t="s">
-        <v>393</v>
-      </c>
-      <c r="C159" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160" t="s">
-        <v>394</v>
-      </c>
-      <c r="C160" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161" t="s">
-        <v>395</v>
-      </c>
-      <c r="C161" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162" t="s">
-        <v>396</v>
-      </c>
-      <c r="C162" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163" t="s">
-        <v>397</v>
-      </c>
-      <c r="C163" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164" t="s">
-        <v>398</v>
-      </c>
-      <c r="C164" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165" t="s">
-        <v>399</v>
-      </c>
-      <c r="C165" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166" t="s">
-        <v>400</v>
-      </c>
-      <c r="C166" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167" t="s">
-        <v>401</v>
-      </c>
-      <c r="C167" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168" t="s">
-        <v>402</v>
-      </c>
-      <c r="C168" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169" t="s">
-        <v>403</v>
-      </c>
-      <c r="C169" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170" t="s">
-        <v>404</v>
-      </c>
-      <c r="C170" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171" t="s">
-        <v>405</v>
-      </c>
-      <c r="C171" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172" t="s">
-        <v>406</v>
-      </c>
-      <c r="C172" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173" t="s">
-        <v>407</v>
-      </c>
-      <c r="C173" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174" t="s">
-        <v>408</v>
-      </c>
-      <c r="C174" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175" t="s">
-        <v>409</v>
-      </c>
-      <c r="C175" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176" t="s">
-        <v>410</v>
-      </c>
-      <c r="C176" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177" t="s">
-        <v>411</v>
-      </c>
-      <c r="C177" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
-      <c r="A178" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178" t="s">
-        <v>412</v>
-      </c>
-      <c r="C178" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
-      <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179" t="s">
-        <v>413</v>
-      </c>
-      <c r="C179" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
-      <c r="A180" t="s">
-        <v>180</v>
-      </c>
-      <c r="B180" t="s">
-        <v>414</v>
-      </c>
-      <c r="C180" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
-      <c r="A181" t="s">
-        <v>181</v>
-      </c>
-      <c r="B181" t="s">
-        <v>415</v>
-      </c>
-      <c r="C181" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3">
-      <c r="A182" t="s">
-        <v>182</v>
-      </c>
-      <c r="B182" t="s">
-        <v>416</v>
-      </c>
-      <c r="C182" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>183</v>
-      </c>
-      <c r="B183" t="s">
-        <v>417</v>
-      </c>
-      <c r="C183" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3">
-      <c r="A184" t="s">
-        <v>184</v>
-      </c>
-      <c r="B184" t="s">
-        <v>418</v>
-      </c>
-      <c r="C184" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
-      <c r="A185" t="s">
-        <v>185</v>
-      </c>
-      <c r="B185" t="s">
-        <v>419</v>
-      </c>
-      <c r="C185" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
-      <c r="A186" t="s">
-        <v>186</v>
-      </c>
-      <c r="B186" t="s">
-        <v>420</v>
-      </c>
-      <c r="C186" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
-      <c r="A187" t="s">
-        <v>187</v>
-      </c>
-      <c r="B187" t="s">
-        <v>421</v>
-      </c>
-      <c r="C187" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
-      <c r="A188" t="s">
-        <v>188</v>
-      </c>
-      <c r="B188" t="s">
-        <v>422</v>
-      </c>
-      <c r="C188" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
-      <c r="A189" t="s">
-        <v>189</v>
-      </c>
-      <c r="B189" t="s">
-        <v>423</v>
-      </c>
-      <c r="C189" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
-      <c r="A190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" t="s">
-        <v>424</v>
-      </c>
-      <c r="C190" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
-      <c r="A191" t="s">
-        <v>191</v>
-      </c>
-      <c r="B191" t="s">
-        <v>425</v>
-      </c>
-      <c r="C191" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" t="s">
-        <v>192</v>
-      </c>
-      <c r="B192" t="s">
-        <v>426</v>
-      </c>
-      <c r="C192" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
-      <c r="A193" t="s">
-        <v>193</v>
-      </c>
-      <c r="B193" t="s">
-        <v>427</v>
-      </c>
-      <c r="C193" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
-      <c r="A194" t="s">
-        <v>194</v>
-      </c>
-      <c r="B194" t="s">
-        <v>428</v>
-      </c>
-      <c r="C194" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
-      <c r="A195" t="s">
-        <v>195</v>
-      </c>
-      <c r="B195" t="s">
-        <v>429</v>
-      </c>
-      <c r="C195" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
-      <c r="A196" t="s">
-        <v>196</v>
-      </c>
-      <c r="B196" t="s">
-        <v>430</v>
-      </c>
-      <c r="C196" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
-      <c r="A197" t="s">
-        <v>197</v>
-      </c>
-      <c r="B197" t="s">
-        <v>431</v>
-      </c>
-      <c r="C197" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3">
-      <c r="A198" t="s">
-        <v>198</v>
-      </c>
-      <c r="B198" t="s">
-        <v>432</v>
-      </c>
-      <c r="C198" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3">
-      <c r="A199" t="s">
-        <v>199</v>
-      </c>
-      <c r="B199" t="s">
-        <v>433</v>
-      </c>
-      <c r="C199" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3">
-      <c r="A200" t="s">
-        <v>200</v>
-      </c>
-      <c r="B200" t="s">
-        <v>434</v>
-      </c>
-      <c r="C200" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" t="s">
-        <v>201</v>
-      </c>
-      <c r="B201" t="s">
-        <v>435</v>
-      </c>
-      <c r="C201" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" t="s">
-        <v>202</v>
-      </c>
-      <c r="B202" t="s">
-        <v>436</v>
-      </c>
-      <c r="C202" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" t="s">
-        <v>203</v>
-      </c>
-      <c r="B203" t="s">
-        <v>437</v>
-      </c>
-      <c r="C203" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
-      <c r="A204" t="s">
-        <v>204</v>
-      </c>
-      <c r="B204" t="s">
-        <v>438</v>
-      </c>
-      <c r="C204" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="A205" t="s">
-        <v>205</v>
-      </c>
-      <c r="B205" t="s">
-        <v>205</v>
-      </c>
-      <c r="C205" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
-      <c r="A206" t="s">
-        <v>206</v>
-      </c>
-      <c r="B206" t="s">
-        <v>439</v>
-      </c>
-      <c r="C206" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
-      <c r="A207" t="s">
-        <v>207</v>
-      </c>
-      <c r="B207" t="s">
-        <v>440</v>
-      </c>
-      <c r="C207" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="A208" t="s">
-        <v>208</v>
-      </c>
-      <c r="B208" t="s">
-        <v>441</v>
-      </c>
-      <c r="C208" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
-      <c r="A209" t="s">
-        <v>209</v>
-      </c>
-      <c r="B209" t="s">
-        <v>442</v>
-      </c>
-      <c r="C209" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
-      <c r="A210" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210" t="s">
-        <v>443</v>
-      </c>
-      <c r="C210" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
-      <c r="A211" t="s">
-        <v>211</v>
-      </c>
-      <c r="B211" t="s">
-        <v>444</v>
-      </c>
-      <c r="C211" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
-      <c r="A212" t="s">
-        <v>212</v>
-      </c>
-      <c r="B212" t="s">
-        <v>445</v>
-      </c>
-      <c r="C212" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="213" spans="1:3">
-      <c r="A213" t="s">
-        <v>213</v>
-      </c>
-      <c r="B213" t="s">
-        <v>446</v>
-      </c>
-      <c r="C213" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="214" spans="1:3">
-      <c r="A214" t="s">
-        <v>214</v>
-      </c>
-      <c r="B214" t="s">
-        <v>447</v>
-      </c>
-      <c r="C214" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="215" spans="1:3">
-      <c r="A215" t="s">
-        <v>215</v>
-      </c>
-      <c r="B215" t="s">
-        <v>448</v>
-      </c>
-      <c r="C215" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="216" spans="1:3">
-      <c r="A216" t="s">
-        <v>216</v>
-      </c>
-      <c r="B216" t="s">
-        <v>449</v>
-      </c>
-      <c r="C216" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="217" spans="1:3">
-      <c r="A217" t="s">
-        <v>217</v>
-      </c>
-      <c r="B217" t="s">
-        <v>450</v>
-      </c>
-      <c r="C217" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="218" spans="1:3">
-      <c r="A218" t="s">
-        <v>218</v>
-      </c>
-      <c r="B218" t="s">
-        <v>451</v>
-      </c>
-      <c r="C218" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
-      <c r="A219" t="s">
-        <v>219</v>
-      </c>
-      <c r="B219" t="s">
-        <v>452</v>
-      </c>
-      <c r="C219" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
-      <c r="A220" t="s">
-        <v>220</v>
-      </c>
-      <c r="B220" t="s">
-        <v>453</v>
-      </c>
-      <c r="C220" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
-      <c r="A221" t="s">
-        <v>221</v>
-      </c>
-      <c r="B221" t="s">
-        <v>454</v>
-      </c>
-      <c r="C221" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
-      <c r="A222" t="s">
-        <v>222</v>
-      </c>
-      <c r="B222" t="s">
-        <v>455</v>
-      </c>
-      <c r="C222" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
-      <c r="A223" t="s">
-        <v>223</v>
-      </c>
-      <c r="B223" t="s">
-        <v>456</v>
-      </c>
-      <c r="C223" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
-      <c r="A224" t="s">
-        <v>224</v>
-      </c>
-      <c r="B224" t="s">
-        <v>457</v>
-      </c>
-      <c r="C224" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
-      <c r="A225" t="s">
-        <v>225</v>
-      </c>
-      <c r="B225" t="s">
-        <v>458</v>
-      </c>
-      <c r="C225" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
-      <c r="A226" t="s">
-        <v>226</v>
-      </c>
-      <c r="B226" t="s">
-        <v>459</v>
-      </c>
-      <c r="C226" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>227</v>
-      </c>
-      <c r="B227" t="s">
-        <v>460</v>
-      </c>
-      <c r="C227" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>228</v>
-      </c>
-      <c r="B228" t="s">
-        <v>461</v>
-      </c>
-      <c r="C228" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="229" spans="1:3">
-      <c r="A229" t="s">
-        <v>229</v>
-      </c>
-      <c r="B229" t="s">
-        <v>462</v>
-      </c>
-      <c r="C229" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3">
-      <c r="A230" t="s">
-        <v>230</v>
-      </c>
-      <c r="B230" t="s">
-        <v>463</v>
-      </c>
-      <c r="C230" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="231" spans="1:3">
-      <c r="A231" t="s">
-        <v>231</v>
-      </c>
-      <c r="B231" t="s">
-        <v>464</v>
-      </c>
-      <c r="C231" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="232" spans="1:3">
-      <c r="A232" t="s">
-        <v>232</v>
-      </c>
-      <c r="B232" t="s">
-        <v>465</v>
-      </c>
-      <c r="C232" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="233" spans="1:3">
-      <c r="A233" t="s">
-        <v>233</v>
-      </c>
-      <c r="B233" t="s">
-        <v>466</v>
-      </c>
-      <c r="C233" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
-      <c r="A234" t="s">
-        <v>234</v>
-      </c>
-      <c r="B234" t="s">
-        <v>467</v>
-      </c>
-      <c r="C234" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="235" spans="1:3">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235" t="s">
-        <v>468</v>
-      </c>
-      <c r="C235" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
-      <c r="A236" t="s">
-        <v>236</v>
-      </c>
-      <c r="B236" t="s">
-        <v>469</v>
-      </c>
-      <c r="C236" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237" t="s">
-        <v>470</v>
-      </c>
       <c r="C237" t="s">
-        <v>703</v>
+        <v>705</v>
+      </c>
+      <c r="D237" t="s">
+        <v>938</v>
       </c>
     </row>
   </sheetData>
